--- a/output/sites/test_differences_nut_all_scenarios_Pointe Suzanne.xlsx
+++ b/output/sites/test_differences_nut_all_scenarios_Pointe Suzanne.xlsx
@@ -475,22 +475,22 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.009</v>
       </c>
       <c r="E3" t="n">
-        <v>0.157</v>
+        <v>0.225</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="4">
@@ -504,22 +504,22 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.182</v>
       </c>
       <c r="E4" t="n">
-        <v>0.194</v>
+        <v>0.395</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004</v>
+        <v>0.202</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="5">
@@ -533,22 +533,22 @@
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.013</v>
+        <v>0.81</v>
       </c>
       <c r="E5" t="n">
-        <v>0.259</v>
+        <v>0.591</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006</v>
+        <v>0.842</v>
       </c>
       <c r="G5" t="n">
-        <v>0.022</v>
+        <v>0.814</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003</v>
+        <v>0.87</v>
       </c>
       <c r="I5" t="n">
-        <v>0.011</v>
+        <v>0.812</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107</v>
+        <v>0.998</v>
       </c>
       <c r="E6" t="n">
-        <v>0.364</v>
+        <v>0.777</v>
       </c>
       <c r="F6" t="n">
-        <v>0.073</v>
+        <v>0.999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.131</v>
+        <v>0.996</v>
       </c>
       <c r="H6" t="n">
-        <v>0.051</v>
+        <v>0.999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.111</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="7">
@@ -591,22 +591,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.477</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.478</v>
+        <v>0.908</v>
       </c>
       <c r="F7" t="n">
-        <v>0.481</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.488</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.472</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -620,22 +620,22 @@
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>0.929</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.66</v>
+        <v>0.972</v>
       </c>
       <c r="F8" t="n">
-        <v>0.963</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.916</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.976</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -649,22 +649,22 @@
         <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.843</v>
+        <v>0.995</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.951</v>
+        <v>0.999</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -823,22 +823,22 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0.809</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.955</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="16">
@@ -852,22 +852,22 @@
         <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.044</v>
       </c>
       <c r="E16" t="n">
-        <v>0.995</v>
+        <v>0.188</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.079</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.059</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0.121</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="17">
@@ -881,22 +881,22 @@
         <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.898</v>
+        <v>0.014</v>
       </c>
       <c r="F17" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.978</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -910,22 +910,22 @@
         <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>0.481</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.488</v>
+        <v>0.001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.479</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.484</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -939,22 +939,22 @@
         <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.086</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1113,19 +1113,19 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005</v>
+        <v>0.028</v>
       </c>
       <c r="F25" t="n">
-        <v>0.014</v>
+        <v>0.056</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="H25" t="n">
-        <v>0.311</v>
+        <v>0.365</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1142,22 +1142,22 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="E26" t="n">
-        <v>0.022</v>
+        <v>0.291</v>
       </c>
       <c r="F26" t="n">
-        <v>0.029</v>
+        <v>0.296</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="H26" t="n">
-        <v>0.346</v>
+        <v>0.44</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="27">
@@ -1171,22 +1171,22 @@
         <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005</v>
+        <v>0.81</v>
       </c>
       <c r="E27" t="n">
-        <v>0.072</v>
+        <v>0.716</v>
       </c>
       <c r="F27" t="n">
-        <v>0.091</v>
+        <v>0.694</v>
       </c>
       <c r="G27" t="n">
-        <v>0.011</v>
+        <v>0.817</v>
       </c>
       <c r="H27" t="n">
-        <v>0.39</v>
+        <v>0.532</v>
       </c>
       <c r="I27" t="n">
-        <v>0.009</v>
+        <v>0.818</v>
       </c>
     </row>
     <row r="28">
@@ -1200,22 +1200,22 @@
         <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.103</v>
+        <v>0.994</v>
       </c>
       <c r="E28" t="n">
-        <v>0.183</v>
+        <v>0.96</v>
       </c>
       <c r="F28" t="n">
-        <v>0.226</v>
+        <v>0.953</v>
       </c>
       <c r="G28" t="n">
-        <v>0.105</v>
+        <v>0.997</v>
       </c>
       <c r="H28" t="n">
-        <v>0.443</v>
+        <v>0.603</v>
       </c>
       <c r="I28" t="n">
-        <v>0.095</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="29">
@@ -1229,22 +1229,22 @@
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>0.478</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.498</v>
+        <v>0.999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.482</v>
+        <v>0.996</v>
       </c>
       <c r="G29" t="n">
-        <v>0.472</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.481</v>
+        <v>0.689</v>
       </c>
       <c r="I29" t="n">
-        <v>0.46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1258,22 +1258,22 @@
         <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>0.938</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.834</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.807</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.938</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.567</v>
+        <v>0.781</v>
       </c>
       <c r="I30" t="n">
-        <v>0.939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1287,22 +1287,22 @@
         <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.986</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.974</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.651</v>
+        <v>0.838</v>
       </c>
       <c r="I31" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.751</v>
+        <v>0.88</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.856</v>
+        <v>0.919</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>

--- a/output/sites/test_differences_nut_all_scenarios_Pointe Suzanne.xlsx
+++ b/output/sites/test_differences_nut_all_scenarios_Pointe Suzanne.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Site</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t xml:space="preserve">subscenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">Fe</t>
@@ -434,315 +437,348 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.993</v>
       </c>
       <c r="E2" t="n">
-        <v>0.107</v>
+        <v>0.222</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.529</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.262</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.304</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009</v>
+        <v>0.873</v>
       </c>
       <c r="E3" t="n">
-        <v>0.225</v>
+        <v>0.341</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002</v>
+        <v>0.545</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006</v>
+        <v>0.381</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.371</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004</v>
+        <v>0.416</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.182</v>
+        <v>0.681</v>
       </c>
       <c r="E4" t="n">
-        <v>0.395</v>
+        <v>0.502</v>
       </c>
       <c r="F4" t="n">
-        <v>0.154</v>
+        <v>0.563</v>
       </c>
       <c r="G4" t="n">
-        <v>0.202</v>
+        <v>0.511</v>
       </c>
       <c r="H4" t="n">
-        <v>0.111</v>
+        <v>0.508</v>
       </c>
       <c r="I4" t="n">
-        <v>0.192</v>
+        <v>0.527</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.81</v>
+        <v>0.491</v>
       </c>
       <c r="E5" t="n">
-        <v>0.591</v>
+        <v>0.652</v>
       </c>
       <c r="F5" t="n">
-        <v>0.842</v>
+        <v>0.585</v>
       </c>
       <c r="G5" t="n">
-        <v>0.814</v>
+        <v>0.636</v>
       </c>
       <c r="H5" t="n">
-        <v>0.87</v>
+        <v>0.638</v>
       </c>
       <c r="I5" t="n">
-        <v>0.812</v>
+        <v>0.629</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.998</v>
+        <v>0.351</v>
       </c>
       <c r="E6" t="n">
-        <v>0.777</v>
+        <v>0.795</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999</v>
+        <v>0.609</v>
       </c>
       <c r="G6" t="n">
-        <v>0.996</v>
+        <v>0.755</v>
       </c>
       <c r="H6" t="n">
-        <v>0.999</v>
+        <v>0.764</v>
       </c>
       <c r="I6" t="n">
-        <v>0.997</v>
+        <v>0.727</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="E7" t="n">
-        <v>0.908</v>
+        <v>0.893</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.622</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.858</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.868</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.819</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.174</v>
       </c>
       <c r="E8" t="n">
-        <v>0.972</v>
+        <v>0.963</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.642</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.918</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.931</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.882</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.942</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="E9" t="n">
-        <v>0.995</v>
+        <v>0.998</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.658</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.921</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.989</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.091</v>
       </c>
       <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.065</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.686</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.049</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.699</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -751,644 +787,713 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.206</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.748</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.359</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0.941</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.671</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.862</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.918</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.768</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.926</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>0.978</v>
+        <v>0.504</v>
       </c>
       <c r="E15" t="n">
-        <v>0.809</v>
+        <v>0.705</v>
       </c>
       <c r="F15" t="n">
-        <v>0.955</v>
+        <v>0.601</v>
       </c>
       <c r="G15" t="n">
-        <v>0.97</v>
+        <v>0.675</v>
       </c>
       <c r="H15" t="n">
-        <v>0.92</v>
+        <v>0.696</v>
       </c>
       <c r="I15" t="n">
-        <v>0.977</v>
+        <v>0.627</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.044</v>
+        <v>0.644</v>
       </c>
       <c r="E16" t="n">
-        <v>0.188</v>
+        <v>0.469</v>
       </c>
       <c r="F16" t="n">
-        <v>0.079</v>
+        <v>0.552</v>
       </c>
       <c r="G16" t="n">
-        <v>0.059</v>
+        <v>0.513</v>
       </c>
       <c r="H16" t="n">
-        <v>0.121</v>
+        <v>0.483</v>
       </c>
       <c r="I16" t="n">
-        <v>0.041</v>
+        <v>0.535</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.484</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.745</v>
       </c>
       <c r="E17" t="n">
-        <v>0.014</v>
+        <v>0.314</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.523</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.46</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.836</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001</v>
+        <v>0.227</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.313</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.249</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.398</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.244</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.878</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.258</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.194</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.35</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.917</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.317</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.951</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.102</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.436</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.194</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.292</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.974</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.423</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.273</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.099</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.985</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.254</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.458</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001</v>
+        <v>0.404</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003</v>
+        <v>0.522</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.516</v>
       </c>
       <c r="H24" t="n">
-        <v>0.281</v>
+        <v>0.429</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.598</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.418</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001</v>
+        <v>0.509</v>
       </c>
       <c r="E25" t="n">
-        <v>0.028</v>
+        <v>0.472</v>
       </c>
       <c r="F25" t="n">
-        <v>0.056</v>
+        <v>0.537</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003</v>
+        <v>0.538</v>
       </c>
       <c r="H25" t="n">
-        <v>0.365</v>
+        <v>0.484</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.583</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.478</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167</v>
+        <v>0.554</v>
       </c>
       <c r="E26" t="n">
-        <v>0.291</v>
+        <v>0.538</v>
       </c>
       <c r="F26" t="n">
-        <v>0.296</v>
+        <v>0.555</v>
       </c>
       <c r="G26" t="n">
-        <v>0.177</v>
+        <v>0.556</v>
       </c>
       <c r="H26" t="n">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="I26" t="n">
-        <v>0.169</v>
+        <v>0.574</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.538</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.81</v>
+        <v>0.602</v>
       </c>
       <c r="E27" t="n">
-        <v>0.716</v>
+        <v>0.62</v>
       </c>
       <c r="F27" t="n">
-        <v>0.694</v>
+        <v>0.587</v>
       </c>
       <c r="G27" t="n">
-        <v>0.817</v>
+        <v>0.584</v>
       </c>
       <c r="H27" t="n">
-        <v>0.532</v>
+        <v>0.609</v>
       </c>
       <c r="I27" t="n">
-        <v>0.818</v>
+        <v>0.566</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.611</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>0.994</v>
+        <v>0.674</v>
       </c>
       <c r="E28" t="n">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="F28" t="n">
-        <v>0.953</v>
+        <v>0.618</v>
       </c>
       <c r="G28" t="n">
-        <v>0.997</v>
+        <v>0.611</v>
       </c>
       <c r="H28" t="n">
-        <v>0.603</v>
+        <v>0.693</v>
       </c>
       <c r="I28" t="n">
-        <v>0.999</v>
+        <v>0.56</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.702</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.737</v>
       </c>
       <c r="E29" t="n">
-        <v>0.999</v>
+        <v>0.8</v>
       </c>
       <c r="F29" t="n">
-        <v>0.996</v>
+        <v>0.654</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.648</v>
       </c>
       <c r="H29" t="n">
-        <v>0.689</v>
+        <v>0.773</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0.55</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.786</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.804</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0.882</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0.696</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.693</v>
       </c>
       <c r="H30" t="n">
-        <v>0.781</v>
+        <v>0.855</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0.545</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.872</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0.949</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0.723</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.726</v>
       </c>
       <c r="H31" t="n">
-        <v>0.838</v>
+        <v>0.912</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0.532</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.922</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.927</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0.768</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.771</v>
       </c>
       <c r="H32" t="n">
-        <v>0.88</v>
+        <v>0.977</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0.527</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.985</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.976</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.812</v>
       </c>
       <c r="H33" t="n">
-        <v>0.919</v>
+        <v>0.999</v>
       </c>
       <c r="I33" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0.851</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.861</v>
       </c>
       <c r="H34" t="n">
-        <v>0.962</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
     </row>
